--- a/Recommendation.xlsx
+++ b/Recommendation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/613c6cf0f3b3ab94/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Coding\Github_repo\ICS3U-SystemAssignment2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="113" documentId="8_{43D20735-CC1E-4CB3-B573-FA2BC166C2E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C35278B-9950-41A0-A3A0-D3B79F22BC74}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDCB3076-AEDF-4395-AC49-E4B6011D2FC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8B5F97D4-D847-4CAA-AE72-71EEB83BBD01}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8B5F97D4-D847-4CAA-AE72-71EEB83BBD01}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="85">
   <si>
     <t>ASUS M509DA</t>
   </si>
@@ -43,12 +43,6 @@
     <t>https://www.canadacomputers.com/product_info.php?cPath=710_1925_1912_1911&amp;item_id=209103</t>
   </si>
   <si>
-    <t>Portable</t>
-  </si>
-  <si>
-    <t>Heavier</t>
-  </si>
-  <si>
     <t>Lenovo IdeaPad 3</t>
   </si>
   <si>
@@ -70,9 +64,6 @@
     <t>Lenovo Ideapad Flex 5</t>
   </si>
   <si>
-    <t>800</t>
-  </si>
-  <si>
     <t>https://www.canadacomputers.com/product_info.php?cPath=710_1925_1912_1909&amp;item_id=208587</t>
   </si>
   <si>
@@ -112,15 +103,6 @@
     <t>https://www.bestbuy.ca/en-ca/product/acer-aspire-5-15-6-laptop-silver-amd-ryzen-5-5500u-512gb-ssd-8gb-ram-windows-11/15743190</t>
   </si>
   <si>
-    <t>https://www.bestbuy.ca/en-ca/product/lenovo-flex-5-13-3-touchscreen-chromebook-graphite-grey-intel-celeron-5205u-64gb-emmc-4gb-ram-chrome-os/14547206</t>
-  </si>
-  <si>
-    <t>500</t>
-  </si>
-  <si>
-    <t>Lenovo Flex 5</t>
-  </si>
-  <si>
     <t>ASUS ROG Strix G17 17.3" Gaming Laptop</t>
   </si>
   <si>
@@ -130,9 +112,6 @@
     <t>https://www.bestbuy.ca/en-ca/product/asus-rog-strix-g17-17-3-gaming-laptop-eclipse-grey-amd-ryzen-7-5800h-1tb-ssd-16gb-ram-rtx-3060/15263757</t>
   </si>
   <si>
-    <t>Very Heavy</t>
-  </si>
-  <si>
     <t>https://www.bestbuy.ca/en-ca/product/acer-nitro-17-3-gaming-laptop-intel-core-i7-11800h-512gb-ssd-16gb-ram-rtx-3060-windows-11/15795306</t>
   </si>
   <si>
@@ -263,6 +242,51 @@
   </si>
   <si>
     <t>780</t>
+  </si>
+  <si>
+    <t>4.19</t>
+  </si>
+  <si>
+    <t>3.64</t>
+  </si>
+  <si>
+    <t>3.96</t>
+  </si>
+  <si>
+    <t>3.88</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>3.04</t>
+  </si>
+  <si>
+    <t>2.78</t>
+  </si>
+  <si>
+    <t>3.75</t>
+  </si>
+  <si>
+    <t>3.99</t>
+  </si>
+  <si>
+    <t>4.63</t>
+  </si>
+  <si>
+    <t>HP 14" Touchscreen 2-in-1 Chromebook</t>
+  </si>
+  <si>
+    <t>https://www.bestbuy.ca/en-ca/product/hp-14-touchscreen-2-in-1-chromebook-mineral-silver-intel-core-i3-1115g4-128gb-ssd-8gb-ram/15442027</t>
+  </si>
+  <si>
+    <t>3.66</t>
+  </si>
+  <si>
+    <t>2.34</t>
+  </si>
+  <si>
+    <t>5.95</t>
   </si>
 </sst>
 </file>
@@ -307,10 +331,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -628,16 +655,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5F74631-F694-499E-93AD-D015F89BA584}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -648,327 +675,327 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="C22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="C24" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -977,14 +1004,17 @@
     <hyperlink ref="C3" r:id="rId2" xr:uid="{F525905E-4A57-4EDA-A49F-F4E505AC6F77}"/>
     <hyperlink ref="C6" r:id="rId3" xr:uid="{C3C9B218-05B5-4788-899F-CF74D48D12A4}"/>
     <hyperlink ref="C11" r:id="rId4" xr:uid="{2956B4E5-8899-4D35-8714-B2ADB5127D9D}"/>
-    <hyperlink ref="C13" r:id="rId5" xr:uid="{0CF4D95E-57B9-4B2A-8027-BF9107722C02}"/>
-    <hyperlink ref="C17" r:id="rId6" xr:uid="{D1415ADC-E1C8-493C-9079-5042C816573E}"/>
-    <hyperlink ref="C19" r:id="rId7" xr:uid="{3384892E-1A58-4CAF-8C69-5933BE57060B}"/>
-    <hyperlink ref="C8" r:id="rId8" xr:uid="{5C4C63E3-82E1-43B4-BB0E-76BCC2E469D9}"/>
-    <hyperlink ref="C24" r:id="rId9" xr:uid="{41FE7516-2BBE-4EE6-8D61-4AFD6CD1C54D}"/>
-    <hyperlink ref="C18" r:id="rId10" xr:uid="{A4C929AC-D2BA-4AEC-80F6-F3759D2B0E57}"/>
+    <hyperlink ref="C17" r:id="rId5" xr:uid="{D1415ADC-E1C8-493C-9079-5042C816573E}"/>
+    <hyperlink ref="C19" r:id="rId6" xr:uid="{3384892E-1A58-4CAF-8C69-5933BE57060B}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{5C4C63E3-82E1-43B4-BB0E-76BCC2E469D9}"/>
+    <hyperlink ref="C24" r:id="rId8" xr:uid="{41FE7516-2BBE-4EE6-8D61-4AFD6CD1C54D}"/>
+    <hyperlink ref="C18" r:id="rId9" xr:uid="{A4C929AC-D2BA-4AEC-80F6-F3759D2B0E57}"/>
+    <hyperlink ref="C5" r:id="rId10" xr:uid="{BF93A5EC-47BD-47EC-A3FD-7A48EEC6F62D}"/>
+    <hyperlink ref="C7" r:id="rId11" xr:uid="{B492AF47-A74C-4E61-BA61-91BF910CC778}"/>
+    <hyperlink ref="C12" r:id="rId12" xr:uid="{D98E556D-46D9-4118-B7C9-76E78401E285}"/>
+    <hyperlink ref="C16" r:id="rId13" xr:uid="{5A7CE705-3B5F-4DFA-9BCB-5633CD5E5262}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId11"/>
+  <pageSetup orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
--- a/Recommendation.xlsx
+++ b/Recommendation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Coding\Github_repo\ICS3U-SystemAssignment2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Github_Repos\ICS3U-SystemAssignment2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDCB3076-AEDF-4395-AC49-E4B6011D2FC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B15AAF5-B71E-4916-BDA6-FCDE15FDF8C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8B5F97D4-D847-4CAA-AE72-71EEB83BBD01}"/>
+    <workbookView xWindow="12396" yWindow="24" windowWidth="9744" windowHeight="10068" xr2:uid="{8B5F97D4-D847-4CAA-AE72-71EEB83BBD01}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -659,12 +659,12 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="8.77734375" style="1"/>
+    <col min="1" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -681,7 +681,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -698,7 +698,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -715,7 +715,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -732,7 +732,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -749,7 +749,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -766,7 +766,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -783,7 +783,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>61</v>
       </c>
@@ -800,7 +800,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -817,7 +817,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
@@ -834,7 +834,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>80</v>
       </c>
@@ -851,7 +851,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
@@ -868,7 +868,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
@@ -885,7 +885,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
@@ -902,7 +902,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
@@ -919,7 +919,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>37</v>
       </c>
@@ -936,7 +936,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>51</v>
       </c>
@@ -953,7 +953,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>55</v>
       </c>
@@ -970,7 +970,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>64</v>
       </c>
@@ -984,7 +984,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>67</v>
       </c>
